--- a/list of instructions_please update regularly.xlsx
+++ b/list of instructions_please update regularly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="104">
   <si>
     <t>,@Ri,#data</t>
   </si>
@@ -427,10 +427,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -839,10 +839,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1028,7 +1028,9 @@
       <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -1042,7 +1044,9 @@
       <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
@@ -1056,7 +1060,9 @@
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
@@ -1118,7 +1124,9 @@
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
@@ -1167,10 +1175,10 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1489,10 +1497,10 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1847,10 +1855,10 @@
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="4"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2103,10 +2111,10 @@
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B104" s="4"/>
+      <c r="B104" s="5"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -2280,7 +2288,9 @@
       <c r="C115" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
@@ -2294,7 +2304,9 @@
       <c r="C116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
@@ -2308,7 +2320,9 @@
       <c r="C117" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
@@ -2322,7 +2336,9 @@
       <c r="C118" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
@@ -2336,7 +2352,9 @@
       <c r="C119" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
@@ -2350,7 +2368,9 @@
       <c r="C120" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
@@ -2385,10 +2405,10 @@
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="5"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
